--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MAINE_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MAINE_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C10">
@@ -524,7 +524,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C11">
@@ -581,7 +581,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C15">
@@ -687,7 +687,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C22">
@@ -819,7 +819,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C31">
@@ -879,41 +879,6 @@
       </c>
       <c r="D35">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/MAINE_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/MAINE_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -654,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -698,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -742,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -773,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -786,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -817,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -830,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -843,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
